--- a/example_data/EMA/label_corrected/comtan-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/comtan-epar-product-information_en.xlsx
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric || populations - pediatric || hepatic</t>
+          <t>populations - geriatric || populations - pediatric || hepatic || renal</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
